--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.677443125156881</v>
+        <v>3.882106333333333</v>
       </c>
       <c r="H2">
-        <v>0.677443125156881</v>
+        <v>11.646319</v>
       </c>
       <c r="I2">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154582</v>
       </c>
       <c r="J2">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154581</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N2">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q2">
-        <v>1.411152095065818</v>
+        <v>9.024983635976222</v>
       </c>
       <c r="R2">
-        <v>1.411152095065818</v>
+        <v>81.224852723786</v>
       </c>
       <c r="S2">
-        <v>0.010800086849919</v>
+        <v>0.02799501426266948</v>
       </c>
       <c r="T2">
-        <v>0.010800086849919</v>
+        <v>0.02799501426266947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.677443125156881</v>
+        <v>3.882106333333333</v>
       </c>
       <c r="H3">
-        <v>0.677443125156881</v>
+        <v>11.646319</v>
       </c>
       <c r="I3">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154582</v>
       </c>
       <c r="J3">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154581</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N3">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q3">
-        <v>13.0568773324807</v>
+        <v>74.82728771245789</v>
       </c>
       <c r="R3">
-        <v>13.0568773324807</v>
+        <v>673.445589412121</v>
       </c>
       <c r="S3">
-        <v>0.09992927741283131</v>
+        <v>0.2321102254852499</v>
       </c>
       <c r="T3">
-        <v>0.09992927741283131</v>
+        <v>0.2321102254852498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.677443125156881</v>
+        <v>3.882106333333333</v>
       </c>
       <c r="H4">
-        <v>0.677443125156881</v>
+        <v>11.646319</v>
       </c>
       <c r="I4">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154582</v>
       </c>
       <c r="J4">
-        <v>0.2675389499214336</v>
+        <v>0.6257373677154581</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q4">
-        <v>20.48892554325278</v>
+        <v>117.8718446339361</v>
       </c>
       <c r="R4">
-        <v>20.48892554325278</v>
+        <v>1060.846601705425</v>
       </c>
       <c r="S4">
-        <v>0.1568095856586833</v>
+        <v>0.3656321279675389</v>
       </c>
       <c r="T4">
-        <v>0.1568095856586833</v>
+        <v>0.3656321279675388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.14086631469494</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H5">
-        <v>1.14086631469494</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I5">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="J5">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N5">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q5">
-        <v>2.376488638509628</v>
+        <v>3.539462729137112</v>
       </c>
       <c r="R5">
-        <v>2.376488638509628</v>
+        <v>31.85516456223401</v>
       </c>
       <c r="S5">
-        <v>0.01818817672701158</v>
+        <v>0.01097922318544596</v>
       </c>
       <c r="T5">
-        <v>0.01818817672701158</v>
+        <v>0.01097922318544595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.14086631469494</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H6">
-        <v>1.14086631469494</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I6">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="J6">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N6">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q6">
-        <v>21.98878543535523</v>
+        <v>29.34613586720545</v>
       </c>
       <c r="R6">
-        <v>21.98878543535523</v>
+        <v>264.1152228048491</v>
       </c>
       <c r="S6">
-        <v>0.1682885872163865</v>
+        <v>0.09103013648487211</v>
       </c>
       <c r="T6">
-        <v>0.1682885872163865</v>
+        <v>0.09103013648487208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.14086631469494</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H7">
-        <v>1.14086631469494</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I7">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="J7">
-        <v>0.4505561640522019</v>
+        <v>0.2454047764062963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q7">
-        <v>34.50492610900236</v>
+        <v>46.22756314298056</v>
       </c>
       <c r="R7">
-        <v>34.50492610900236</v>
+        <v>416.0480682868251</v>
       </c>
       <c r="S7">
-        <v>0.2640794001088039</v>
+        <v>0.1433954167359783</v>
       </c>
       <c r="T7">
-        <v>0.2640794001088039</v>
+        <v>0.1433954167359782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.713819528120212</v>
+        <v>0.7994406666666668</v>
       </c>
       <c r="H8">
-        <v>0.713819528120212</v>
+        <v>2.398322</v>
       </c>
       <c r="I8">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="J8">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N8">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q8">
-        <v>1.48692618641965</v>
+        <v>1.858511414963111</v>
       </c>
       <c r="R8">
-        <v>1.48692618641965</v>
+        <v>16.726602734668</v>
       </c>
       <c r="S8">
-        <v>0.01138001496004728</v>
+        <v>0.005765002538267586</v>
       </c>
       <c r="T8">
-        <v>0.01138001496004728</v>
+        <v>0.005765002538267584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.713819528120212</v>
+        <v>0.7994406666666668</v>
       </c>
       <c r="H9">
-        <v>0.713819528120212</v>
+        <v>2.398322</v>
       </c>
       <c r="I9">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="J9">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N9">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q9">
-        <v>13.75798745324413</v>
+        <v>15.40915462826645</v>
       </c>
       <c r="R9">
-        <v>13.75798745324413</v>
+        <v>138.682391654398</v>
       </c>
       <c r="S9">
-        <v>0.1052951413916883</v>
+        <v>0.04779836961414466</v>
       </c>
       <c r="T9">
-        <v>0.1052951413916883</v>
+        <v>0.04779836961414464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.713819528120212</v>
+        <v>0.7994406666666668</v>
       </c>
       <c r="H10">
-        <v>0.713819528120212</v>
+        <v>2.398322</v>
       </c>
       <c r="I10">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="J10">
-        <v>0.2819048860263645</v>
+        <v>0.1288578558782456</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q10">
-        <v>21.58911149860431</v>
+        <v>24.27330370790556</v>
       </c>
       <c r="R10">
-        <v>21.58911149860431</v>
+        <v>218.45973337115</v>
       </c>
       <c r="S10">
-        <v>0.1652297296746289</v>
+        <v>0.07529448372583337</v>
       </c>
       <c r="T10">
-        <v>0.1652297296746289</v>
+        <v>0.07529448372583336</v>
       </c>
     </row>
   </sheetData>
